--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1922503.162919787</v>
+        <v>2031644.416479914</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12134429.06144739</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9920809.819709854</v>
+        <v>9943256.695191877</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>284.2979526792429</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>217.055177455675</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>193.6625353078282</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8352527003384</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>79.4165396514655</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>27.63832568342796</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>233.1990332130799</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>299.267822464352</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>66.56644016807033</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>61.78921822950016</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>69.4458625500193</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.8355654476797</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1199,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>317.0617862604411</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>135.3222619078506</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>134.1392412509879</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>192.01765159098</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8084047615432</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>108.453217140421</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>122.9098296024085</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>129.5380597272477</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1576,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1661,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1777,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>201.4105577836242</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,19 +2001,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.594095449514112</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>144.4286493356916</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,13 +2244,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>25.7319404949734</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2494,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>80.67842139643643</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2716,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2770,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>107.9721668030643</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>146.4467250013042</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2965,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>21.90286287505374</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>58.24570521548602</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>9.146142788179397</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3679,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>216.4795114578124</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>147.053668106558</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3746,13 +3748,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>116.9020714724182</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4025,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>33.82891891787487</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>173.7797061357546</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1491.907945722348</v>
+        <v>1847.08477889506</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.907945722348</v>
+        <v>1478.122261954648</v>
       </c>
       <c r="D2" t="n">
-        <v>1133.642247115598</v>
+        <v>1190.952612783695</v>
       </c>
       <c r="E2" t="n">
-        <v>747.8539945173536</v>
+        <v>1190.952612783695</v>
       </c>
       <c r="F2" t="n">
-        <v>336.8680897277461</v>
+        <v>779.9667079940879</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>363.5144466859625</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>608.5986938974718</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>846.2214751156638</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1142.292041673267</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1447.767147908852</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>1722.883367225487</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2238.426880394154</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056584</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="W2" t="n">
-        <v>1878.50778578647</v>
+        <v>2237.224110870871</v>
       </c>
       <c r="X2" t="n">
-        <v>1878.50778578647</v>
+        <v>2237.224110870871</v>
       </c>
       <c r="Y2" t="n">
-        <v>1878.50778578647</v>
+        <v>1847.08477889506</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>85.99742130093836</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>220.5771119336716</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>797.2999270369272</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1438.323136656821</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1723.657007090154</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783101</v>
+        <v>2352.385654925575</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>1787.95470102812</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1533.717344299918</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.2467865680031</v>
+        <v>1101.636343840552</v>
       </c>
       <c r="C4" t="n">
-        <v>51.2467865680031</v>
+        <v>932.7001609126449</v>
       </c>
       <c r="D4" t="n">
-        <v>51.2467865680031</v>
+        <v>782.5835215003092</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>634.6704279179161</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>487.7804804200057</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>319.4587080131296</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1556.227393153825</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>1333.24891234856</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>1044.130574852398</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="V4" t="n">
-        <v>789.4460866465112</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="W4" t="n">
-        <v>500.0289166095505</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="X4" t="n">
-        <v>272.0393657115332</v>
+        <v>1283.284808670792</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.2467865680031</v>
+        <v>1283.284808670792</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1822.970833065919</v>
+        <v>1312.920589001878</v>
       </c>
       <c r="C5" t="n">
-        <v>1454.008316125507</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="D5" t="n">
-        <v>1454.008316125507</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="E5" t="n">
-        <v>1068.220063527263</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="F5" t="n">
-        <v>657.2341587376554</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2336.413538083233</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>2005.350650739662</v>
       </c>
       <c r="W5" t="n">
-        <v>2209.570673130041</v>
+        <v>1703.05992097769</v>
       </c>
       <c r="X5" t="n">
-        <v>2209.570673130041</v>
+        <v>1703.05992097769</v>
       </c>
       <c r="Y5" t="n">
-        <v>2209.570673130041</v>
+        <v>1312.920589001878</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>466.4176094235533</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>763.7295585398681</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.201367341571</v>
+        <v>1130.035448032194</v>
       </c>
       <c r="N6" t="n">
-        <v>1861.38035112061</v>
+        <v>1520.445009357936</v>
       </c>
       <c r="O6" t="n">
-        <v>2193.450786296771</v>
+        <v>1855.373690073468</v>
       </c>
       <c r="P6" t="n">
-        <v>2440.633520129068</v>
+        <v>2420.128558892024</v>
       </c>
       <c r="Q6" t="n">
-        <v>2555.949435236614</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.9696073256102</v>
+        <v>262.8607426369077</v>
       </c>
       <c r="C7" t="n">
-        <v>452.7307788730139</v>
+        <v>262.8607426369077</v>
       </c>
       <c r="D7" t="n">
-        <v>452.7307788730139</v>
+        <v>262.8607426369077</v>
       </c>
       <c r="E7" t="n">
-        <v>452.7307788730139</v>
+        <v>262.8607426369077</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>262.8607426369077</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>262.8607426369077</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>114.2132070697896</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1439.817372234358</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="T7" t="n">
-        <v>1439.817372234358</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="U7" t="n">
-        <v>1439.817372234358</v>
+        <v>1255.744530921303</v>
       </c>
       <c r="V7" t="n">
-        <v>1439.817372234358</v>
+        <v>1001.060042715416</v>
       </c>
       <c r="W7" t="n">
-        <v>1150.400202197397</v>
+        <v>711.6428726784552</v>
       </c>
       <c r="X7" t="n">
-        <v>922.4106512993801</v>
+        <v>483.6533217804379</v>
       </c>
       <c r="Y7" t="n">
-        <v>701.61807215585</v>
+        <v>262.8607426369077</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>901.3425442071327</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="C8" t="n">
-        <v>532.3800272667211</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="D8" t="n">
-        <v>532.3800272667211</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="E8" t="n">
-        <v>532.3800272667211</v>
+        <v>943.9580720614667</v>
       </c>
       <c r="F8" t="n">
-        <v>121.3941224771135</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.2903254719911</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>447.8319447135511</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>804.6133007477388</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2568.493631507462</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2257.170226019558</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2003.590997961805</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182944</v>
+        <v>1650.822342691691</v>
       </c>
       <c r="X8" t="n">
-        <v>1291.481876182944</v>
+        <v>1650.822342691691</v>
       </c>
       <c r="Y8" t="n">
-        <v>901.3425442071327</v>
+        <v>1330.557912125588</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3045644835107</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8515352023837</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9171255411325</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6796705356769</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1451125625619</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>115.2852578226162</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L9" t="n">
-        <v>662.3527266874012</v>
+        <v>599.2586963421437</v>
       </c>
       <c r="M9" t="n">
-        <v>1025.614745646621</v>
+        <v>965.5645858344692</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1355.974147160212</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1690.902827875743</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.061870084021</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.567687002215</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610463172942</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.52116543401</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.369057202267</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131700474065</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.280200268533</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519901503579</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>519.0385070447395</v>
+        <v>473.9697003482516</v>
       </c>
       <c r="C10" t="n">
-        <v>350.1023241168326</v>
+        <v>473.9697003482516</v>
       </c>
       <c r="D10" t="n">
-        <v>199.9856847044969</v>
+        <v>473.9697003482516</v>
       </c>
       <c r="E10" t="n">
-        <v>199.9856847044969</v>
+        <v>473.9697003482516</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>473.9697003482516</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>250.8417132121973</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>829.7308018317424</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="U10" t="n">
-        <v>990.1041419119399</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="V10" t="n">
-        <v>990.1041419119399</v>
+        <v>1093.728153710986</v>
       </c>
       <c r="W10" t="n">
-        <v>700.6869718749792</v>
+        <v>804.3109836740252</v>
       </c>
       <c r="X10" t="n">
-        <v>700.6869718749792</v>
+        <v>804.3109836740252</v>
       </c>
       <c r="Y10" t="n">
-        <v>700.6869718749792</v>
+        <v>583.5184045304951</v>
       </c>
     </row>
     <row r="11">
@@ -5033,10 +5035,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5051,19 +5053,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2222.001901828445</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="E13" t="n">
         <v>631.7012443408906</v>
@@ -5188,13 +5190,13 @@
         <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5267,13 +5269,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5300,25 +5302,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>849.3843576263199</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>680.448174698413</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5464,22 +5466,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>2023.916610740955</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1769.232122535068</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1479.814952498107</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>1251.82540160009</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>1031.03282245656</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5510,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5598,19 +5600,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.2707707770319</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>634.334587849125</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5710,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5765,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5832,22 +5834,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5886,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5932,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6072,22 +6074,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.2707707770319</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>634.334587849125</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>484.2179484367892</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>484.2179484367892</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>484.2179484367892</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>317.0218491516692</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.3100179938673</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.701365648819</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.711814750802</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.9192356072716</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6214,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6224,10 +6226,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C27" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D27" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F27" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G27" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="M27" t="n">
-        <v>840.8417932021785</v>
+        <v>3210.485548300425</v>
       </c>
       <c r="N27" t="n">
-        <v>1468.439756756785</v>
+        <v>3482.038612289356</v>
       </c>
       <c r="O27" t="n">
-        <v>2020.349486996072</v>
+        <v>4033.948342528643</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>4457.571492023711</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R27" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S27" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T27" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U27" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V27" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W27" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X27" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y27" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="28">
@@ -6358,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.5505208511906</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232838</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D28" t="n">
         <v>779.6143379232838</v>
@@ -6418,16 +6420,16 @@
         <v>1977.461080510508</v>
       </c>
       <c r="V28" t="n">
-        <v>1868.398285759938</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W28" t="n">
-        <v>1578.981115722978</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1350.99156482496</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>1130.19898568143</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6449,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6543,22 +6545,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>409.1360811687896</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>904.4616873845483</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>707.672526468518</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>538.7363435406111</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6197041282753</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1882.204779583153</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1110.113570442288</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>889.3209912987577</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615665</v>
       </c>
       <c r="C33" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334538</v>
       </c>
       <c r="D33" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673287</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667831</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694716</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740624</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.58852738579</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913445</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>2715.159942084666</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>3210.485548300424</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>3807.864035926976</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>4435.461999481583</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R33" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S33" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301205</v>
       </c>
       <c r="T33" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022979</v>
       </c>
       <c r="U33" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566164</v>
       </c>
       <c r="V33" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334421</v>
       </c>
       <c r="W33" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.99811360622</v>
       </c>
       <c r="X33" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400687</v>
       </c>
       <c r="Y33" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635733</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>198.027470314254</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -7017,25 +7019,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>695.5020655703109</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>526.5658826424041</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>376.4492432300683</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E37" t="n">
-        <v>376.4492432300683</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F37" t="n">
-        <v>376.4492432300683</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>103.0551911168399</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7254,19 +7256,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>803.8641191832229</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C40" t="n">
-        <v>634.927936255316</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1978.396372297858</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.396372297858</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1723.711884091971</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1434.29471405501</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X40" t="n">
-        <v>1206.305163156993</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y40" t="n">
-        <v>985.5125840134626</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="41">
@@ -7394,10 +7396,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7494,22 +7496,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>815.6105350483875</v>
       </c>
       <c r="D43" t="n">
-        <v>411.9631215597619</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>411.9631215597619</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7594,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="44">
@@ -7625,31 +7627,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7664,22 +7666,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
         <v>3820.749612123003</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.8431516380886</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C46" t="n">
-        <v>572.9069687101817</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D46" t="n">
-        <v>422.7903292978459</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E46" t="n">
-        <v>274.8772357154528</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F46" t="n">
-        <v>127.9872882175424</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>127.9872882175424</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1801.926023807726</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1547.241535601839</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1257.824365564879</v>
       </c>
       <c r="X46" t="n">
-        <v>1144.284195611858</v>
+        <v>1029.834814666861</v>
       </c>
       <c r="Y46" t="n">
-        <v>923.4916164683283</v>
+        <v>809.0422355233313</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7994,13 +7996,13 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>318.4234200803673</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,22 +8060,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>22.26125001357767</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>380.8926041660668</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>186.449012614385</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8295,28 +8297,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>166.1321840381054</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179983</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>27.39221874048003</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8535,25 +8537,25 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>70.03064962107902</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>299.8549597144487</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.18437503906577</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>16.89590291932146</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23464,13 +23466,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23706,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>84.77391660561992</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,19 +23889,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>147.0213775686983</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2.005313310877568</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>226.4057028288546</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24382,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.5874149221290992</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24658,10 +24660,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>144.1654765207637</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>40.64330621514819</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>20.8000960973236</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>143.6212754172151</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0.925938869475857</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>31.71340154579411</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>106.465793928349</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>112.4047682534896</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>872931.0887935724</v>
+        <v>895743.5319448079</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>872931.0887935724</v>
+        <v>872737.2662489547</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>872931.0887935724</v>
+        <v>872737.2662489547</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>852993.4253596176</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596176</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596176</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>852993.4253596173</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>852993.4253596173</v>
+        <v>852993.4253596176</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>852993.4253596176</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>852993.4253596173</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049984</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049982</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.619783004</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="F2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="G2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="H2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="G2" t="n">
-        <v>565002.6197830042</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="L2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="M2" t="n">
         <v>565002.6197830043</v>
       </c>
-      <c r="J2" t="n">
-        <v>565002.6197830046</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830043</v>
       </c>
       <c r="O2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172764.3597898925</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130705.5901165056</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>130705.5901165056</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695076</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695075</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
@@ -26442,22 +26444,22 @@
         <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695093</v>
       </c>
       <c r="M4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695053</v>
+        <v>6287.480531695051</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-763665.907227271</v>
+        <v>-614084.6106825508</v>
       </c>
       <c r="C6" t="n">
-        <v>351085.8763486481</v>
+        <v>179417.0350283486</v>
       </c>
       <c r="D6" t="n">
-        <v>351085.8763486479</v>
+        <v>352181.3948182407</v>
       </c>
       <c r="E6" t="n">
-        <v>-49892.83219714416</v>
+        <v>-43296.25831834847</v>
       </c>
       <c r="F6" t="n">
-        <v>457592.6094274023</v>
+        <v>457592.6094274022</v>
       </c>
       <c r="G6" t="n">
-        <v>457592.609427402</v>
+        <v>457592.6094274024</v>
       </c>
       <c r="H6" t="n">
         <v>457592.6094274023</v>
       </c>
       <c r="I6" t="n">
-        <v>457592.6094274021</v>
+        <v>457592.6094274023</v>
       </c>
       <c r="J6" t="n">
-        <v>289987.4316174199</v>
+        <v>288178.5926013542</v>
       </c>
       <c r="K6" t="n">
-        <v>457592.6094274024</v>
+        <v>457592.6094274022</v>
       </c>
       <c r="L6" t="n">
-        <v>457592.6094274024</v>
+        <v>457592.6094274023</v>
       </c>
       <c r="M6" t="n">
-        <v>324985.3156984755</v>
+        <v>326708.1525231668</v>
       </c>
       <c r="N6" t="n">
-        <v>457592.6094274021</v>
+        <v>457592.6094274022</v>
       </c>
       <c r="O6" t="n">
-        <v>457592.6094274023</v>
+        <v>457592.6094274022</v>
       </c>
       <c r="P6" t="n">
-        <v>457592.6094274023</v>
+        <v>457592.6094274022</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>939.7063906498447</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>189.7254341522339</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>428.269109691829</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>525.210096564402</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>70.38508894144007</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>194.492525317279</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>115.245920710272</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>198.0713297056092</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,16 +27624,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>178.3486695598741</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>49.97314625306097</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>100.6803809305575</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>42.70144128350096</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27865,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>342.1018402229347</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,7 +27912,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>69.17615239561246</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>71.37876304151628</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,13 +28064,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>163.3173245187921</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29797,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>320.6287649182604</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>480.5394041793978</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>596.1516230853282</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>663.3335468027922</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>674.0669770839334</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>543.2400145062753</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>86.08466081179233</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>190.9642958583803</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>326.3883979675032</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>438.8694798973639</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>512.1399829041653</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>525.694804331558</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>480.9080431470012</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.54392985284991</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1329773194315819</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>204.9484232984513</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>141.8956649881266</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.240360714843063</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09243013678523072</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,28 +31843,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>431.3680753731354</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32078,7 +32080,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,7 +32101,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32318,22 +32320,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32552,13 +32554,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551106</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32569,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>353.2560498238277</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32792,7 +32794,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32807,10 +32809,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32959,7 +32961,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33026,28 +33028,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>399.4395445221152</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,25 +33265,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>305.187676947251</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33512,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565753</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33737,28 +33739,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,13 +33976,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,7 +33991,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34214,25 +34216,25 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34357,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>551.7051287319848</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>487.5747176873218</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>520.7510234026939</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>144.9108381653747</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>521.873694610508</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>174.0696575289998</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>354.6791430312496</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>570.4594634530874</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>118.0296862297623</v>
       </c>
       <c r="R6" t="n">
-        <v>6.454437538930121</v>
+        <v>25.33729477225505</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>360.385208115341</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>432.9873135755195</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>444.6539134873424</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>312.0070187510058</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>21.71629760961989</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>64.12666919171357</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>188.5469589931442</v>
       </c>
       <c r="L9" t="n">
-        <v>367.7110102589292</v>
+        <v>300.3151001174897</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>370.005948982147</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>394.3530922482247</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>338.3117987025568</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>551.8516545275991</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>26.44568217978363</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>202.2269825633448</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>55.73362173643217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35416,10 +35418,10 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193529</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
         <v>696.488651224316</v>
@@ -35489,28 +35491,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>297.3936679588052</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35668,7 +35670,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,7 +35728,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -35966,22 +35968,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36142,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36202,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075158</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36217,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>213.2742757378062</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36361,7 +36363,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36379,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,7 +36442,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36455,10 +36457,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36607,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36674,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>265.4651371077849</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36911,25 +36913,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>167.346237972892</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,7 +37077,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
@@ -37160,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121309</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37385,28 +37387,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37555,7 +37557,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
@@ -37622,13 +37624,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,7 +37639,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37801,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>409.1088842875403</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2031644.416479914</v>
+        <v>2027488.230171948</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>48.60751682748831</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>284.2979526792429</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885176</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.3157839734241</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906499</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>74.03593649473756</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -882,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>27.63832568342796</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>171.4126669905978</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.8355654476797</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>299.267822464352</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1065,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>11.08205860739105</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>61.78921822950016</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>130.8853193499947</v>
       </c>
       <c r="I8" t="n">
-        <v>64.8355654476797</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>317.0617862604411</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555393</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108.453217140421</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>60.86538463674672</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>129.5380597272477</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>132.6315337216692</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1612,13 +1612,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>28.23631843387954</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>144.4286493356916</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>25.7319404949734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2766,22 +2766,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>245.8796921214428</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>24.27150084979029</v>
       </c>
     </row>
     <row r="29">
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>146.4467250013042</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,10 +3195,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>190.7368854541452</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>9.146142788179397</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>148.8744394430824</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>147.053668106558</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>116.9020714724182</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>80.08971311158706</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>108.9065924712584</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>173.7797061357546</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1847.08477889506</v>
+        <v>2399.161149170367</v>
       </c>
       <c r="C2" t="n">
-        <v>1478.122261954648</v>
+        <v>2030.198632229955</v>
       </c>
       <c r="D2" t="n">
-        <v>1190.952612783695</v>
+        <v>1671.932933623204</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.952612783695</v>
+        <v>1286.14468102496</v>
       </c>
       <c r="F2" t="n">
-        <v>779.9667079940879</v>
+        <v>875.1587762353523</v>
       </c>
       <c r="G2" t="n">
-        <v>363.5144466859625</v>
+        <v>458.7065149272269</v>
       </c>
       <c r="H2" t="n">
-        <v>51.79985532281972</v>
+        <v>146.9919235640841</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>125.8997233870228</v>
       </c>
       <c r="K2" t="n">
-        <v>608.5986938974718</v>
+        <v>287.6947354520175</v>
       </c>
       <c r="L2" t="n">
-        <v>846.2214751156638</v>
+        <v>525.3175166702088</v>
       </c>
       <c r="M2" t="n">
-        <v>1142.292041673267</v>
+        <v>821.3880832278107</v>
       </c>
       <c r="N2" t="n">
-        <v>1447.767147908852</v>
+        <v>1126.863189463395</v>
       </c>
       <c r="O2" t="n">
-        <v>1722.883367225487</v>
+        <v>1719.541832015283</v>
       </c>
       <c r="P2" t="n">
         <v>2238.426880394154</v>
@@ -4354,28 +4354,28 @@
         <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016314</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016314</v>
       </c>
       <c r="U2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016314</v>
       </c>
       <c r="V2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016314</v>
       </c>
       <c r="W2" t="n">
-        <v>2237.224110870871</v>
+        <v>2448.259651016314</v>
       </c>
       <c r="X2" t="n">
-        <v>2237.224110870871</v>
+        <v>2448.259651016314</v>
       </c>
       <c r="Y2" t="n">
-        <v>1847.08477889506</v>
+        <v>2448.259651016314</v>
       </c>
     </row>
     <row r="3">
@@ -4403,34 +4403,34 @@
         <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093836</v>
+        <v>85.99742130093824</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995069</v>
+        <v>201.9455071369552</v>
       </c>
       <c r="K3" t="n">
-        <v>220.5771119336716</v>
+        <v>585.1891840496866</v>
       </c>
       <c r="L3" t="n">
-        <v>797.2999270369272</v>
+        <v>794.780057302517</v>
       </c>
       <c r="M3" t="n">
-        <v>1438.323136656821</v>
+        <v>1058.719588798004</v>
       </c>
       <c r="N3" t="n">
-        <v>1723.657007090154</v>
+        <v>1344.053459231336</v>
       </c>
       <c r="O3" t="n">
-        <v>2352.385654925575</v>
+        <v>1829.130999113547</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2316.738101020794</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="R3" t="n">
         <v>2589.992766140986</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1101.636343840552</v>
+        <v>908.7612653873506</v>
       </c>
       <c r="C4" t="n">
-        <v>932.7001609126449</v>
+        <v>739.8250824594437</v>
       </c>
       <c r="D4" t="n">
-        <v>782.5835215003092</v>
+        <v>589.7084430471079</v>
       </c>
       <c r="E4" t="n">
-        <v>634.6704279179161</v>
+        <v>441.7953494647148</v>
       </c>
       <c r="F4" t="n">
-        <v>487.7804804200057</v>
+        <v>294.9054019668044</v>
       </c>
       <c r="G4" t="n">
-        <v>319.4587080131296</v>
+        <v>126.5836295599283</v>
       </c>
       <c r="H4" t="n">
-        <v>167.7386194637149</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018396</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>187.543616615987</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>413.9157199341309</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>662.982486266671</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>911.5616180092716</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>1125.148384357426</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>1284.38807899347</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="W4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="X4" t="n">
-        <v>1283.284808670792</v>
+        <v>1311.20230936112</v>
       </c>
       <c r="Y4" t="n">
-        <v>1283.284808670792</v>
+        <v>1090.40973021759</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1312.920589001878</v>
+        <v>1005.244870907111</v>
       </c>
       <c r="C5" t="n">
-        <v>943.9580720614667</v>
+        <v>1005.244870907111</v>
       </c>
       <c r="D5" t="n">
-        <v>943.9580720614667</v>
+        <v>1005.244870907111</v>
       </c>
       <c r="E5" t="n">
-        <v>943.9580720614667</v>
+        <v>1005.244870907111</v>
       </c>
       <c r="F5" t="n">
-        <v>532.9721672718592</v>
+        <v>594.2589661175039</v>
       </c>
       <c r="G5" t="n">
-        <v>117.2903254719911</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H5" t="n">
         <v>117.2903254719911</v>
       </c>
       <c r="I5" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104778</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135511</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
@@ -4585,34 +4585,34 @@
         <v>2075.818195082061</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140986</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U5" t="n">
-        <v>2336.413538083233</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="V5" t="n">
-        <v>2005.350650739662</v>
+        <v>2134.752698217159</v>
       </c>
       <c r="W5" t="n">
-        <v>1703.05992097769</v>
+        <v>1781.984042947045</v>
       </c>
       <c r="X5" t="n">
-        <v>1703.05992097769</v>
+        <v>1781.984042947045</v>
       </c>
       <c r="Y5" t="n">
-        <v>1312.920589001878</v>
+        <v>1391.844710971233</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>71.80507655065196</v>
       </c>
       <c r="I6" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096208</v>
       </c>
       <c r="K6" t="n">
-        <v>466.4176094235533</v>
+        <v>573.7192355186012</v>
       </c>
       <c r="L6" t="n">
-        <v>763.7295585398681</v>
+        <v>871.0311846349159</v>
       </c>
       <c r="M6" t="n">
-        <v>1130.035448032194</v>
+        <v>1237.337074127241</v>
       </c>
       <c r="N6" t="n">
-        <v>1520.445009357936</v>
+        <v>1627.746635452984</v>
       </c>
       <c r="O6" t="n">
-        <v>1855.373690073468</v>
+        <v>1962.675316168515</v>
       </c>
       <c r="P6" t="n">
-        <v>2420.128558892024</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q6" t="n">
         <v>2536.977948259489</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>262.8607426369077</v>
+        <v>654.0998818694828</v>
       </c>
       <c r="C7" t="n">
-        <v>262.8607426369077</v>
+        <v>485.1636989415759</v>
       </c>
       <c r="D7" t="n">
-        <v>262.8607426369077</v>
+        <v>485.1636989415759</v>
       </c>
       <c r="E7" t="n">
-        <v>262.8607426369077</v>
+        <v>485.1636989415759</v>
       </c>
       <c r="F7" t="n">
-        <v>262.8607426369077</v>
+        <v>473.9697003482516</v>
       </c>
       <c r="G7" t="n">
-        <v>262.8607426369077</v>
+        <v>305.993511610141</v>
       </c>
       <c r="H7" t="n">
-        <v>114.2132070697896</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T7" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1255.744530921303</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V7" t="n">
-        <v>1001.060042715416</v>
+        <v>1392.299181947991</v>
       </c>
       <c r="W7" t="n">
-        <v>711.6428726784552</v>
+        <v>1102.88201191103</v>
       </c>
       <c r="X7" t="n">
-        <v>483.6533217804379</v>
+        <v>874.892461013013</v>
       </c>
       <c r="Y7" t="n">
-        <v>262.8607426369077</v>
+        <v>654.0998818694828</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>943.9580720614667</v>
+        <v>1315.610655259716</v>
       </c>
       <c r="C8" t="n">
-        <v>943.9580720614667</v>
+        <v>946.6481383193047</v>
       </c>
       <c r="D8" t="n">
-        <v>943.9580720614667</v>
+        <v>588.3824397125543</v>
       </c>
       <c r="E8" t="n">
-        <v>943.9580720614667</v>
+        <v>202.59418711431</v>
       </c>
       <c r="F8" t="n">
-        <v>532.9721672718592</v>
+        <v>195.6486863651066</v>
       </c>
       <c r="G8" t="n">
-        <v>117.2903254719911</v>
+        <v>184.0072486056426</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719911</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I8" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135511</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477388</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
         <v>1673.478115539971</v>
@@ -4825,31 +4825,31 @@
         <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507462</v>
+        <v>2568.493631507461</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="S8" t="n">
         <v>2465.81558556073</v>
       </c>
       <c r="T8" t="n">
-        <v>2257.170226019558</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="U8" t="n">
-        <v>2003.590997961805</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="V8" t="n">
-        <v>2003.590997961805</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="W8" t="n">
-        <v>1650.822342691691</v>
+        <v>2465.81558556073</v>
       </c>
       <c r="X8" t="n">
-        <v>1650.822342691691</v>
+        <v>2092.34982729965</v>
       </c>
       <c r="Y8" t="n">
-        <v>1330.557912125588</v>
+        <v>1702.210495323838</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>71.80507655065196</v>
       </c>
       <c r="I9" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096208</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258289</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421437</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M9" t="n">
-        <v>965.5645858344692</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1355.974147160212</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>1690.902827875743</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
         <v>2237.235965858066</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>473.9697003482516</v>
+        <v>665.6557187433658</v>
       </c>
       <c r="C10" t="n">
-        <v>473.9697003482516</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="D10" t="n">
-        <v>473.9697003482516</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E10" t="n">
-        <v>473.9697003482516</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F10" t="n">
-        <v>473.9697003482516</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="G10" t="n">
-        <v>305.993511610141</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I10" t="n">
-        <v>51.79985532281972</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080552</v>
+        <v>77.98108068080546</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.412641916873</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1348.412641916873</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1348.412641916873</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1093.728153710986</v>
+        <v>1585.503483652114</v>
       </c>
       <c r="W10" t="n">
-        <v>804.3109836740252</v>
+        <v>1296.086313615153</v>
       </c>
       <c r="X10" t="n">
-        <v>804.3109836740252</v>
+        <v>1068.096762717136</v>
       </c>
       <c r="Y10" t="n">
-        <v>583.5184045304951</v>
+        <v>847.3041835736055</v>
       </c>
     </row>
     <row r="11">
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,16 +5053,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179085</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5477693179085</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>762.5477693179085</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2312.991837396757</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,13 +5290,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5731,40 +5731,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,28 +5773,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1366.386875345992</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5977,19 +5977,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6071,25 +6071,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>913.2907898187001</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>2715.159942084666</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>3210.485548300425</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>3210.485548300425</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>3482.038612289356</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,7 +6360,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C28" t="n">
         <v>929.7309773356195</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510508</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V28" t="n">
-        <v>1977.461080510508</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="29">
@@ -6454,16 +6454,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6472,10 +6472,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6539,28 +6539,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>762.5477693179085</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>614.6217844681063</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>464.5051450557705</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557705</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578602</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.58852738579</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913445</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>3210.485548300424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3807.864035926976</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>4435.461999481583</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263526</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356194</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1495.722333193953</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="35">
@@ -6919,7 +6919,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6934,7 +6934,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>244.7670222746419</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>103.0551911168399</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7128,19 +7128,19 @@
         <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>721.7774158311365</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>552.8412329032296</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W40" t="n">
-        <v>1352.208010702924</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X40" t="n">
-        <v>1124.218459804906</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y40" t="n">
-        <v>903.4258806613763</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,25 +7487,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>984.5467179762944</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>815.6105350483875</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1166.195182806534</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7627,70 +7627,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>809.0422355233313</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>640.1060525954244</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1801.926023807726</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1547.241535601839</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1257.824365564879</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1029.834814666861</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>809.0422355233313</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,10 +7993,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>320.7701244800552</v>
       </c>
       <c r="P2" t="n">
-        <v>318.4234200803673</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>22.26125001357767</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660668</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>248.7601900310634</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>166.1321840381054</v>
+        <v>148.4266296017856</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>173.7639243740405</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>299.8549597144487</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906577</v>
+        <v>20.1843750390658</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>16.89590291932146</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>48.39475227997539</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>120.3791545843328</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>2.005313310877568</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>40.64330621514819</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>194.3131525023045</v>
       </c>
     </row>
     <row r="29">
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>20.8000960973236</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -25083,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>61.40075786968279</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>30.9575407388549</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>31.71340154579411</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>138.4949402405077</v>
       </c>
     </row>
     <row r="44">
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>39.70888054695399</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>112.4047682534896</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>895743.5319448079</v>
+        <v>895743.531944808</v>
       </c>
     </row>
     <row r="3">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>852993.4253596176</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596173</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596173</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>852993.4253596176</v>
+        <v>852993.4253596173</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596176</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>852993.4253596176</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596176</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049983</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="I2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="J2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830044</v>
-      </c>
       <c r="L2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="N2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="O2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753973</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898925</v>
+        <v>172764.3597898935</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457506</v>
+        <v>500888.8677457509</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26401,13 +26401,13 @@
         <v>130884.4569042353</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151599</v>
+        <v>159785.8388151601</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695035</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6287.480531695052</v>
+      </c>
+      <c r="K4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="J4" t="n">
-        <v>6287.480531695051</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>6287.480531695052</v>
       </c>
-      <c r="L4" t="n">
-        <v>6287.480531695093</v>
-      </c>
       <c r="M4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699086</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.0893615096</v>
+        <v>93481.08936150958</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-614084.6106825508</v>
+        <v>-614084.6106825498</v>
       </c>
       <c r="C6" t="n">
-        <v>179417.0350283486</v>
+        <v>179417.0350283475</v>
       </c>
       <c r="D6" t="n">
-        <v>352181.3948182407</v>
+        <v>352181.394818241</v>
       </c>
       <c r="E6" t="n">
-        <v>-43296.25831834847</v>
+        <v>-43643.63757270551</v>
       </c>
       <c r="F6" t="n">
-        <v>457592.6094274022</v>
+        <v>457245.2301730452</v>
       </c>
       <c r="G6" t="n">
-        <v>457592.6094274024</v>
+        <v>457245.2301730454</v>
       </c>
       <c r="H6" t="n">
-        <v>457592.6094274023</v>
+        <v>457245.2301730454</v>
       </c>
       <c r="I6" t="n">
-        <v>457592.6094274023</v>
+        <v>457245.2301730452</v>
       </c>
       <c r="J6" t="n">
-        <v>288178.5926013542</v>
+        <v>287831.2133469973</v>
       </c>
       <c r="K6" t="n">
-        <v>457592.6094274022</v>
+        <v>457245.2301730454</v>
       </c>
       <c r="L6" t="n">
-        <v>457592.6094274023</v>
+        <v>457245.2301730454</v>
       </c>
       <c r="M6" t="n">
-        <v>326708.1525231668</v>
+        <v>326360.7732688098</v>
       </c>
       <c r="N6" t="n">
-        <v>457592.6094274022</v>
+        <v>457245.2301730452</v>
       </c>
       <c r="O6" t="n">
-        <v>457592.6094274022</v>
+        <v>457245.2301730455</v>
       </c>
       <c r="P6" t="n">
-        <v>457592.6094274022</v>
+        <v>457245.2301730452</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976094</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498447</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976094</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522339</v>
+        <v>189.725434152235</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.269109691829</v>
+        <v>428.2691096918295</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352463</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644021</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>334.1263248359922</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>70.38508894144007</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>76.16695116918295</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994863</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519698</v>
+        <v>116.4834600519699</v>
       </c>
       <c r="S4" t="n">
         <v>200.4475243713015</v>
@@ -27602,10 +27602,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>198.0713297056092</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>240.1123563912715</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>49.97314625306097</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27776,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27785,16 +27785,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>134.3389894155402</v>
       </c>
       <c r="G7" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>42.70144128350096</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
         <v>194.4851693340911</v>
@@ -27830,7 +27830,7 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>169.9009678984651</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>69.17615239561246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>71.37876304151628</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>220.7052287134384</v>
@@ -28070,13 +28070,13 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>191.2722586870813</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29799,7 +29799,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.01499882009089</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625584</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115542</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066894</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.5191561611368</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014935</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682848</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658682</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485893</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775954</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330903</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325345</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282122</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494788</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072711</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.613166585674103</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743148</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307769</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859907</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.4910271261555</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605109</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911971</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.557742824073</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257153</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433295</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028908</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.157834152643</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.96386179969221</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993423</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.1061293806364542</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651427</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351906</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777201</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855586</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711385</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600312</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932504</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840044</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184399</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351507</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.247124431139</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519959</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567076</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965185</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189609</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31287,40 +31287,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,43 +31363,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,43 +31442,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265704</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H8" t="n">
         <v>38.6885148673074</v>
@@ -31524,40 +31524,40 @@
         <v>145.6403241227262</v>
       </c>
       <c r="J8" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L8" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839334</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712724</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.9506271086971</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R8" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31600,43 +31600,43 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586115</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J9" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K9" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.9080431470012</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R9" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841575</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,43 +31679,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425716</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L10" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P10" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662508</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288117</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T10" t="n">
-        <v>7.240360714843063</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09243013678523072</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,16 +32101,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,31 +32548,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.2560498238277</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32791,13 +32791,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32806,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32961,7 +32961,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33034,19 +33034,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>405.637736314577</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,19 +33259,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33280,10 +33280,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565753</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,19 +33745,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,13 +34207,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319848</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>74.84835158000311</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873218</v>
+        <v>163.4293051161563</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315071</v>
+        <v>240.0230113315063</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>299.0611783410121</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>308.5607133692773</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>598.6652955069578</v>
       </c>
       <c r="P2" t="n">
-        <v>520.7510234026939</v>
+        <v>524.1263114938085</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185461</v>
+        <v>315.5952546185455</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138521</v>
+        <v>39.52180169138484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932421</v>
+        <v>151.6622745597328</v>
       </c>
       <c r="K3" t="n">
-        <v>144.9108381653747</v>
+        <v>387.1148251643751</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840966</v>
+        <v>211.7079527806367</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352464</v>
+        <v>266.6055873691787</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407405</v>
+        <v>288.2160307407397</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>489.9773130123342</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289998</v>
+        <v>492.5324261689364</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>276.0148132527184</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451883082</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.8576659452556</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203474</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.582592255091</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.090032063233</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324796</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000442</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944464</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.5828603915738</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.12666919171357</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>354.6791430312496</v>
+        <v>336.9735885949297</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>570.4594634530874</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297623</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225505</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978363</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35102,19 +35102,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K8" t="n">
-        <v>260.4495531344172</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L8" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873424</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495857</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342476</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R8" t="n">
-        <v>21.71629760961989</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171357</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>188.5469589931442</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.005948982147</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025568</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>551.8516545275991</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656114</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978363</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K10" t="n">
         <v>174.6066995266583</v>
@@ -35339,19 +35339,19 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
       </c>
       <c r="P10" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1905571410453</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,16 +35731,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.2742757378062</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36454,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -36682,19 +36682,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>274.2960242312436</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M30" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36928,10 +36928,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121309</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,19 +37393,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,28 +37618,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875403</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2027488.230171948</v>
+        <v>2029248.760474732</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9943256.695191877</v>
+        <v>9943256.695191875</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>48.60751682748831</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>12.28773869504415</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885176</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734241</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>140.9590097022371</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906499</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833739</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -816,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>166.6385546828073</v>
       </c>
       <c r="H4" t="n">
-        <v>74.03593649473756</v>
+        <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>130.6685305731872</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>318.7075391280871</v>
       </c>
       <c r="G5" t="n">
-        <v>171.4126669905978</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555396</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>11.08205860739105</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>155.1498917871967</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>339.6725860131332</v>
       </c>
       <c r="G8" t="n">
         <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>130.8853193499947</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.935408774453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1305,13 +1305,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>76.60129660960709</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>60.86538463674672</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,7 +1542,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>132.6315337216692</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>115.7228684476123</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1770,13 +1770,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>28.23631843387954</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>201.4105577836242</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>3.475606507923219</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.27150084979029</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>93.4044447618827</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3246,13 +3246,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>190.7368854541452</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.702514956955</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>214.0647808588581</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3556,7 +3556,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>148.8744394430824</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>111.5512144998715</v>
       </c>
       <c r="Y43" t="n">
-        <v>80.08971311158706</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>108.9065924712584</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>246.4755938422903</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2399.161149170367</v>
+        <v>1588.214085525555</v>
       </c>
       <c r="C2" t="n">
-        <v>2030.198632229955</v>
+        <v>1219.251568585143</v>
       </c>
       <c r="D2" t="n">
-        <v>1671.932933623204</v>
+        <v>860.9858699783929</v>
       </c>
       <c r="E2" t="n">
-        <v>1286.14468102496</v>
+        <v>475.1976173801486</v>
       </c>
       <c r="F2" t="n">
-        <v>875.1587762353523</v>
+        <v>64.2117125905411</v>
       </c>
       <c r="G2" t="n">
-        <v>458.7065149272269</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640841</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870228</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520175</v>
+        <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>525.3175166702088</v>
+        <v>834.68025436644</v>
       </c>
       <c r="M2" t="n">
-        <v>821.3880832278107</v>
+        <v>1130.750820924043</v>
       </c>
       <c r="N2" t="n">
-        <v>1126.863189463395</v>
+        <v>1436.225927159628</v>
       </c>
       <c r="O2" t="n">
-        <v>1719.541832015283</v>
+        <v>2077.249136779522</v>
       </c>
       <c r="P2" t="n">
-        <v>2238.426880394154</v>
+        <v>2277.553464068626</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466514</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016314</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2448.259651016314</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="U2" t="n">
-        <v>2448.259651016314</v>
+        <v>2305.876812933247</v>
       </c>
       <c r="V2" t="n">
-        <v>2448.259651016314</v>
+        <v>1974.813925589677</v>
       </c>
       <c r="W2" t="n">
-        <v>2448.259651016314</v>
+        <v>1974.813925589677</v>
       </c>
       <c r="X2" t="n">
-        <v>2448.259651016314</v>
+        <v>1974.813925589677</v>
       </c>
       <c r="Y2" t="n">
-        <v>2448.259651016314</v>
+        <v>1974.813925589677</v>
       </c>
     </row>
     <row r="3">
@@ -4397,40 +4397,40 @@
         <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884144</v>
+        <v>320.7307563884145</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093824</v>
+        <v>85.99742130093821</v>
       </c>
       <c r="I3" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369552</v>
+        <v>77.11538214995069</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496866</v>
+        <v>282.3826491045401</v>
       </c>
       <c r="L3" t="n">
-        <v>794.780057302517</v>
+        <v>859.1054642077956</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.719588798004</v>
+        <v>1123.044995703283</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.053459231336</v>
+        <v>1408.378866136617</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113547</v>
+        <v>2037.107513972038</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
         <v>2589.992766140986</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>908.7612653873506</v>
+        <v>634.6704279179161</v>
       </c>
       <c r="C4" t="n">
-        <v>739.8250824594437</v>
+        <v>634.6704279179161</v>
       </c>
       <c r="D4" t="n">
-        <v>589.7084430471079</v>
+        <v>634.6704279179161</v>
       </c>
       <c r="E4" t="n">
-        <v>441.7953494647148</v>
+        <v>634.6704279179161</v>
       </c>
       <c r="F4" t="n">
-        <v>294.9054019668044</v>
+        <v>487.7804804200057</v>
       </c>
       <c r="G4" t="n">
-        <v>126.5836295599283</v>
+        <v>319.4587080131296</v>
       </c>
       <c r="H4" t="n">
-        <v>51.7998553228197</v>
+        <v>167.7386194637149</v>
       </c>
       <c r="I4" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018396</v>
+        <v>54.03452733018416</v>
       </c>
       <c r="K4" t="n">
-        <v>187.543616615987</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341309</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.982486266671</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092716</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357426</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.38807899347</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.20230936112</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1311.20230936112</v>
+        <v>1193.542248702568</v>
       </c>
       <c r="S4" t="n">
-        <v>1311.20230936112</v>
+        <v>991.0700018628692</v>
       </c>
       <c r="T4" t="n">
-        <v>1311.20230936112</v>
+        <v>766.6588426383072</v>
       </c>
       <c r="U4" t="n">
-        <v>1311.20230936112</v>
+        <v>634.6704279179161</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.20230936112</v>
+        <v>634.6704279179161</v>
       </c>
       <c r="W4" t="n">
-        <v>1311.20230936112</v>
+        <v>634.6704279179161</v>
       </c>
       <c r="X4" t="n">
-        <v>1311.20230936112</v>
+        <v>634.6704279179161</v>
       </c>
       <c r="Y4" t="n">
-        <v>1090.40973021759</v>
+        <v>634.6704279179161</v>
       </c>
     </row>
     <row r="5">
@@ -4543,46 +4543,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1005.244870907111</v>
+        <v>1129.422051487366</v>
       </c>
       <c r="C5" t="n">
-        <v>1005.244870907111</v>
+        <v>1129.422051487366</v>
       </c>
       <c r="D5" t="n">
-        <v>1005.244870907111</v>
+        <v>771.1563528806159</v>
       </c>
       <c r="E5" t="n">
-        <v>1005.244870907111</v>
+        <v>385.3681002823717</v>
       </c>
       <c r="F5" t="n">
-        <v>594.2589661175039</v>
+        <v>63.44129308228369</v>
       </c>
       <c r="G5" t="n">
-        <v>421.1148580461929</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H5" t="n">
-        <v>117.2903254719911</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="I5" t="n">
         <v>51.7998553228197</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104778</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477379</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.47811553997</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.81819508206</v>
       </c>
       <c r="P5" t="n">
         <v>2384.705143645556</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140985</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.752698217159</v>
+        <v>2258.929878797414</v>
       </c>
       <c r="W5" t="n">
-        <v>1781.984042947045</v>
+        <v>1906.1612235273</v>
       </c>
       <c r="X5" t="n">
-        <v>1781.984042947045</v>
+        <v>1906.1612235273</v>
       </c>
       <c r="Y5" t="n">
-        <v>1391.844710971233</v>
+        <v>1516.021891551488</v>
       </c>
     </row>
     <row r="6">
@@ -4631,16 +4631,16 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
         <v>51.7998553228197</v>
@@ -4649,13 +4649,13 @@
         <v>240.1153828096208</v>
       </c>
       <c r="K6" t="n">
-        <v>573.7192355186012</v>
+        <v>573.7192355186016</v>
       </c>
       <c r="L6" t="n">
-        <v>871.0311846349159</v>
+        <v>871.0311846349161</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.337074127241</v>
+        <v>1237.337074127242</v>
       </c>
       <c r="N6" t="n">
         <v>1627.746635452984</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>654.0998818694828</v>
+        <v>1087.825563768798</v>
       </c>
       <c r="C7" t="n">
-        <v>485.1636989415759</v>
+        <v>918.889380840891</v>
       </c>
       <c r="D7" t="n">
-        <v>485.1636989415759</v>
+        <v>768.7727414285553</v>
       </c>
       <c r="E7" t="n">
-        <v>485.1636989415759</v>
+        <v>620.8596478461621</v>
       </c>
       <c r="F7" t="n">
-        <v>473.9697003482516</v>
+        <v>473.9697003482518</v>
       </c>
       <c r="G7" t="n">
-        <v>305.993511610141</v>
+        <v>305.9935116101411</v>
       </c>
       <c r="H7" t="n">
         <v>157.3459760430229</v>
@@ -4725,16 +4725,16 @@
         <v>51.7998553228197</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080546</v>
+        <v>77.98108068080543</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121972</v>
+        <v>250.8417132121971</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225441</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317418</v>
       </c>
       <c r="N7" t="n">
         <v>1130.141273750633</v>
@@ -4746,31 +4746,31 @@
         <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="U7" t="n">
-        <v>1646.983670153878</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="V7" t="n">
-        <v>1392.299181947991</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="W7" t="n">
-        <v>1102.88201191103</v>
+        <v>1646.983670153877</v>
       </c>
       <c r="X7" t="n">
-        <v>874.892461013013</v>
+        <v>1490.266607742568</v>
       </c>
       <c r="Y7" t="n">
-        <v>654.0998818694828</v>
+        <v>1269.474028599038</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1315.610655259716</v>
+        <v>1519.561383463178</v>
       </c>
       <c r="C8" t="n">
-        <v>946.6481383193047</v>
+        <v>1150.598866522766</v>
       </c>
       <c r="D8" t="n">
-        <v>588.3824397125543</v>
+        <v>792.333167916016</v>
       </c>
       <c r="E8" t="n">
-        <v>202.59418711431</v>
+        <v>406.5449153177718</v>
       </c>
       <c r="F8" t="n">
-        <v>195.6486863651066</v>
+        <v>63.44129308228368</v>
       </c>
       <c r="G8" t="n">
-        <v>184.0072486056426</v>
+        <v>51.7998553228197</v>
       </c>
       <c r="H8" t="n">
         <v>51.7998553228197</v>
@@ -4804,25 +4804,25 @@
         <v>51.7998553228197</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135509</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187503</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
         <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.81819508206</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645556</v>
       </c>
       <c r="Q8" t="n">
         <v>2568.493631507461</v>
@@ -4831,25 +4831,25 @@
         <v>2589.992766140985</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.81558556073</v>
+        <v>2589.992766140985</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.81558556073</v>
+        <v>2258.929878797414</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.81558556073</v>
+        <v>1906.1612235273</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.34982729965</v>
+        <v>1906.1612235273</v>
       </c>
       <c r="Y8" t="n">
-        <v>1702.210495323838</v>
+        <v>1906.1612235273</v>
       </c>
     </row>
     <row r="9">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.6557187433658</v>
+        <v>1016.553075282091</v>
       </c>
       <c r="C10" t="n">
-        <v>496.7195358154589</v>
+        <v>847.616892354184</v>
       </c>
       <c r="D10" t="n">
-        <v>346.6028964031232</v>
+        <v>697.5002529418482</v>
       </c>
       <c r="E10" t="n">
-        <v>198.6898028207301</v>
+        <v>549.5871593594551</v>
       </c>
       <c r="F10" t="n">
-        <v>51.7998553228197</v>
+        <v>402.6972118615447</v>
       </c>
       <c r="G10" t="n">
-        <v>51.7998553228197</v>
+        <v>234.7210231234341</v>
       </c>
       <c r="H10" t="n">
-        <v>51.7998553228197</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
         <v>51.7998553228197</v>
@@ -4998,16 +4998,16 @@
         <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1585.503483652114</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>1296.086313615153</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="X10" t="n">
-        <v>1068.096762717136</v>
+        <v>1418.994119255861</v>
       </c>
       <c r="Y10" t="n">
-        <v>847.3041835736055</v>
+        <v>1198.201540112331</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,16 +5053,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5117,22 +5117,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5199,52 +5199,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2312.991837396757</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2312.991837396757</v>
+        <v>2330.071297269541</v>
       </c>
       <c r="U13" t="n">
-        <v>2023.916610740955</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V13" t="n">
-        <v>1769.232122535068</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W13" t="n">
-        <v>1479.814952498107</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,13 +5290,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876693</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597624</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D16" t="n">
-        <v>383.4415877881669</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
         <v>235.5284942057738</v>
@@ -5436,52 +5436,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2023.916610740955</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1769.232122535068</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1479.814952498107</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1251.82540160009</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.547769317909</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2253.988764961266</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2040.996070613739</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1786.311582407852</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="20">
@@ -5731,25 +5731,25 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
@@ -5773,28 +5773,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5837,13 +5837,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5943,19 +5943,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5995,13 +5995,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,28 +6217,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,16 +6454,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6548,16 +6548,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832229</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
         <v>484.8112968429803</v>
@@ -6894,16 +6894,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1495.722333193953</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1206.305163156993</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,16 +6928,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7165,37 +7165,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>727.9786782557277</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>559.0424953278208</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>408.925855915485</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1871.240688199802</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1616.556199993915</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1327.139029956954</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>1099.149479058937</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>878.3568999154069</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>763.7541388327643</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C46" t="n">
-        <v>594.8179559048574</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D46" t="n">
         <v>484.8112968429803</v>
@@ -7839,19 +7839,19 @@
         <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.402603663004</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>312.4876138345749</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>320.7701244800552</v>
+        <v>369.603020508343</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>84.69108553970739</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>248.7601900310634</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>148.4266296017856</v>
+        <v>148.4266296017861</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>48.39475227997539</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>101.682581879676</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>120.3791545843328</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>84.77391660561992</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>282.7088678813209</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>37.1260136526046</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856948</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.3131525023045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>72.11969353038614</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25134,13 +25134,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>61.40075786968279</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.9575407388549</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="Y43" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>39.70888054695399</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>39.70888054695388</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>895743.531944808</v>
+        <v>895743.5319448079</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>852993.4253596173</v>
+        <v>852993.4253596175</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>852993.4253596176</v>
+        <v>852993.4253596172</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596173</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596173</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>852993.4253596175</v>
+        <v>852993.4253596176</v>
       </c>
     </row>
     <row r="16">
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
+        <v>565002.6197830042</v>
+      </c>
+      <c r="H2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="J2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="J2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830045</v>
-      </c>
       <c r="L2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="N2" t="n">
         <v>565002.6197830045</v>
@@ -26355,7 +26355,7 @@
         <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753973</v>
+        <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898935</v>
+        <v>172764.3597898921</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457509</v>
+        <v>500888.8677457508</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260479</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151601</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
         <v>129066.754725248</v>
@@ -26429,22 +26429,22 @@
         <v>6287.480531695052</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695035</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6287.480531695051</v>
+      </c>
+      <c r="K4" t="n">
         <v>6287.480531695052</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6287.480531695051</v>
       </c>
       <c r="L4" t="n">
         <v>6287.480531695052</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699086</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.08936150957</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150958</v>
+        <v>93481.08936150957</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-614084.6106825498</v>
+        <v>-614084.6106825512</v>
       </c>
       <c r="C6" t="n">
-        <v>179417.0350283475</v>
+        <v>179417.0350283487</v>
       </c>
       <c r="D6" t="n">
-        <v>352181.394818241</v>
+        <v>352181.3948182407</v>
       </c>
       <c r="E6" t="n">
-        <v>-43643.63757270551</v>
+        <v>-43330.99624378428</v>
       </c>
       <c r="F6" t="n">
-        <v>457245.2301730452</v>
+        <v>457557.8715019665</v>
       </c>
       <c r="G6" t="n">
-        <v>457245.2301730454</v>
+        <v>457557.8715019663</v>
       </c>
       <c r="H6" t="n">
-        <v>457245.2301730454</v>
+        <v>457557.8715019666</v>
       </c>
       <c r="I6" t="n">
-        <v>457245.2301730452</v>
+        <v>457557.8715019666</v>
       </c>
       <c r="J6" t="n">
-        <v>287831.2133469973</v>
+        <v>288143.8546759186</v>
       </c>
       <c r="K6" t="n">
-        <v>457245.2301730454</v>
+        <v>457557.8715019665</v>
       </c>
       <c r="L6" t="n">
-        <v>457245.2301730454</v>
+        <v>457557.8715019667</v>
       </c>
       <c r="M6" t="n">
-        <v>326360.7732688098</v>
+        <v>326673.4145977312</v>
       </c>
       <c r="N6" t="n">
-        <v>457245.2301730452</v>
+        <v>457557.8715019665</v>
       </c>
       <c r="O6" t="n">
-        <v>457245.2301730455</v>
+        <v>457557.8715019667</v>
       </c>
       <c r="P6" t="n">
-        <v>457245.2301730452</v>
+        <v>457557.8715019666</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976094</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498443</v>
       </c>
       <c r="D3" t="n">
         <v>939.7063906498445</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976094</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.725434152235</v>
+        <v>189.7254341522334</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918295</v>
+        <v>428.2691096918293</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352463</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644021</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>334.1263248359922</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,10 +27435,10 @@
         <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>110.1454432999921</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27536,16 +27536,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>76.16695116918295</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994863</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.4834600519699</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>155.5767301646318</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>88.16850661362429</v>
       </c>
       <c r="G5" t="n">
-        <v>240.1123563912715</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.9354087744531</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>134.3389894155402</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27833,13 +27833,13 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>70.55976360184044</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>67.20345972857825</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>169.9009678984651</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
         <v>64.83556544767973</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
         <v>206.5589059457607</v>
@@ -27912,16 +27912,16 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>70.55976360183988</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,10 +28070,10 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>191.2722586870813</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29453,7 +29453,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.01499882009089</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625584</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115542</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066894</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611368</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014935</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682848</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658682</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485893</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775954</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330903</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325345</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282122</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494788</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072711</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674103</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743148</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307769</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859907</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.4910271261555</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605109</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911971</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.557742824073</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257153</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433295</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028908</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.157834152643</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969221</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993423</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364542</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651427</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351906</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777201</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855586</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711385</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600312</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932504</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840044</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184399</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351507</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.247124431139</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519959</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567076</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965185</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189609</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265702</v>
       </c>
       <c r="H5" t="n">
-        <v>38.6885148673074</v>
+        <v>38.68851486730739</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182603</v>
+        <v>320.6287649182602</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793975</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853281</v>
+        <v>596.1516230853279</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027918</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839332</v>
+        <v>674.066977083933</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712722</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062752</v>
+        <v>543.2400145062751</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086969</v>
       </c>
       <c r="R5" t="n">
-        <v>237.301835423752</v>
+        <v>237.3018354237519</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179229</v>
       </c>
       <c r="T5" t="n">
         <v>16.53694361837062</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360043</v>
+        <v>2.021255255360042</v>
       </c>
       <c r="H6" t="n">
-        <v>19.52107049255621</v>
+        <v>19.5210704925562</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586112</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675031</v>
+        <v>326.388397967503</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973638</v>
+        <v>438.8694798973636</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041652</v>
+        <v>512.1399829041651</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315579</v>
+        <v>525.6948043315577</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470011</v>
+        <v>480.908043147001</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274804</v>
       </c>
       <c r="Q6" t="n">
         <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
-        <v>125.4951289248982</v>
+        <v>125.4951289248981</v>
       </c>
       <c r="S6" t="n">
         <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841571</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31436,28 +31436,28 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.694552507729228</v>
+        <v>1.694552507729227</v>
       </c>
       <c r="H7" t="n">
-        <v>15.0661122959926</v>
+        <v>15.06611229599259</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425714</v>
       </c>
       <c r="J7" t="n">
-        <v>119.8048622964564</v>
+        <v>119.8048622964563</v>
       </c>
       <c r="K7" t="n">
         <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309436</v>
+        <v>251.9337428309435</v>
       </c>
       <c r="M7" t="n">
         <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509645</v>
       </c>
       <c r="O7" t="n">
         <v>239.5172944561276</v>
@@ -31469,16 +31469,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662505</v>
       </c>
       <c r="S7" t="n">
         <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843059</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523068</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,22 +32080,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>436.0678650906015</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32557,7 +32557,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,16 +32797,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33268,19 +33268,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>573.8098963904297</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000311</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>163.4293051161563</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315063</v>
+        <v>552.510625166082</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410121</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692773</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>598.6652955069578</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938085</v>
+        <v>202.3276033223266</v>
       </c>
       <c r="Q2" t="n">
-        <v>315.5952546185455</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138484</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.6622745597328</v>
+        <v>25.57123921932421</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643751</v>
+        <v>207.3406736915044</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806367</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691787</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>288.2160307407397</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>489.9773130123342</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689364</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527184</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883082</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452556</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203474</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.582592255091</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.090032063233</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324796</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000442</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944464</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915738</v>
+        <v>139.5828603915739</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.449553134417</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153408</v>
+        <v>360.3852081153406</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755191</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873423</v>
+        <v>444.6539134873421</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495854</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510057</v>
+        <v>312.0070187510055</v>
       </c>
       <c r="Q5" t="n">
         <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961977</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>190.2177045321223</v>
       </c>
       <c r="K6" t="n">
-        <v>336.9735885949297</v>
+        <v>336.9735885949302</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174896</v>
+        <v>300.3151001174895</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821469</v>
+        <v>370.0059489821468</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482246</v>
+        <v>394.3530922482245</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025565</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>251.9966948131502</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656113</v>
+        <v>328.1069739656112</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225502</v>
+        <v>25.33729477225499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978357</v>
       </c>
       <c r="K7" t="n">
-        <v>174.6066995266583</v>
+        <v>174.6066995266582</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912597</v>
+        <v>279.5237680912596</v>
       </c>
       <c r="M7" t="n">
         <v>305.2126850597957</v>
@@ -35108,13 +35108,13 @@
         <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701673</v>
+        <v>264.1024223701672</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633447</v>
+        <v>202.2269825633446</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643208</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,19 +35731,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>302.0934576762713</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36205,7 +36205,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,16 +36445,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>431.6758624684114</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
